--- a/decision_log.xlsx
+++ b/decision_log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Allie/Workspace/revOps_dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833B5E8A-1787-AA41-9D69-625163484EC4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E9A581-AD2F-2846-84C4-F2998D55749B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="2300" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{5012CBB8-F046-554B-AC92-AA1359997254}"/>
+    <workbookView xWindow="5800" yWindow="5880" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{5012CBB8-F046-554B-AC92-AA1359997254}"/>
   </bookViews>
   <sheets>
     <sheet name="Brainstorming" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Possible Charting Options</t>
   </si>
@@ -104,6 +104,33 @@
   </si>
   <si>
     <t>Began leveraging a simple Dash framework to get started, will expand as time allows.</t>
+  </si>
+  <si>
+    <t>Mockaroo Limitations</t>
+  </si>
+  <si>
+    <t>Limited in ability to manipulate mock datasets, so will separate opportunities from actual purchases.</t>
+  </si>
+  <si>
+    <t>Minimal - extra code that would otherwise not be required</t>
+  </si>
+  <si>
+    <t>Implemented code at onset of main app py file to merge datasets</t>
+  </si>
+  <si>
+    <t>Separate "account"/"purchase" vs "opportunity" datasets</t>
+  </si>
+  <si>
+    <t>Originally tried to condense code to include line in `app.layout` that had final line of "html.Div(id='outputDiv', children=[])" drawing from a function, but charts would not render.</t>
+  </si>
+  <si>
+    <t>Include chart codes in `app.layout`</t>
+  </si>
+  <si>
+    <t>Charts not properly rendering</t>
+  </si>
+  <si>
+    <t>Code will be less concise, and (I find) less readable</t>
   </si>
 </sst>
 </file>
@@ -590,7 +617,8 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -654,8 +682,43 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="6" customFormat="1"/>
-    <row r="6" spans="1:8" s="6" customFormat="1"/>
+    <row r="5" spans="1:8" s="6" customFormat="1" ht="85">
+      <c r="A5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="7">
+        <v>45059</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="6" customFormat="1" ht="153">
+      <c r="A6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="7">
+        <v>45060</v>
+      </c>
+    </row>
     <row r="7" spans="1:8" s="6" customFormat="1"/>
     <row r="8" spans="1:8" s="6" customFormat="1"/>
     <row r="9" spans="1:8" s="6" customFormat="1"/>

--- a/decision_log.xlsx
+++ b/decision_log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Allie/Workspace/revOps_dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E9A581-AD2F-2846-84C4-F2998D55749B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{767CE904-3206-C04B-8582-CF3BE0672A3C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5800" yWindow="5880" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{5012CBB8-F046-554B-AC92-AA1359997254}"/>
+    <workbookView xWindow="5840" yWindow="2120" windowWidth="27640" windowHeight="16940" xr2:uid="{5012CBB8-F046-554B-AC92-AA1359997254}"/>
   </bookViews>
   <sheets>
     <sheet name="Brainstorming" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="142">
   <si>
     <t>Possible Charting Options</t>
   </si>
@@ -40,9 +40,6 @@
     <t>Sales cycle time</t>
   </si>
   <si>
-    <t>Win rates</t>
-  </si>
-  <si>
     <t>Customer acquisition cost</t>
   </si>
   <si>
@@ -55,9 +52,6 @@
     <t>Market Benchmarking by product</t>
   </si>
   <si>
-    <t>quartiles/tiers</t>
-  </si>
-  <si>
     <t>Prediction modeling (start w/ simple ARIMA, etc.)</t>
   </si>
   <si>
@@ -131,13 +125,340 @@
   </si>
   <si>
     <t>Code will be less concise, and (I find) less readable</t>
+  </si>
+  <si>
+    <t>Looks way more clunky and less easy to read, but did finally render.</t>
+  </si>
+  <si>
+    <t>Will work on fixing this in future iterations.</t>
+  </si>
+  <si>
+    <t>Forecast accuracy</t>
+  </si>
+  <si>
+    <t>Quartiles by product</t>
+  </si>
+  <si>
+    <t>Customer churn</t>
+  </si>
+  <si>
+    <t>Renewal percentage/amounts</t>
+  </si>
+  <si>
+    <t>Win rates / Conversion Rates</t>
+  </si>
+  <si>
+    <t>Unique users</t>
+  </si>
+  <si>
+    <t>Active users</t>
+  </si>
+  <si>
+    <t>New users</t>
+  </si>
+  <si>
+    <t>Income Statement</t>
+  </si>
+  <si>
+    <t>Margins over time</t>
+  </si>
+  <si>
+    <t>Accts receivable (billed amounts) / Accts payable (invested amounts)</t>
+  </si>
+  <si>
+    <t>"Quarter over Quarter Sales"</t>
+  </si>
+  <si>
+    <t>Data limited, no time to redo to include enough to do YoY or trailing 6 months, etc.</t>
+  </si>
+  <si>
+    <t>Data only goes back 6 months in "purchases"</t>
+  </si>
+  <si>
+    <t>Chart looks a little silly with only 3 data points</t>
+  </si>
+  <si>
+    <t>Instead of keeping code clean and implementing chart code at the bottom of the code in a way that also was able to include more functions in the chart_functions.py file, creating a cleaner code, I moved a more lengthy code to the initial app.layout call</t>
+  </si>
+  <si>
+    <t>Used QoQ sales</t>
+  </si>
+  <si>
+    <t>Not as telling, but probably would not have provided much more information on a sample dataset anyway.</t>
+  </si>
+  <si>
+    <t>Cost of Revenue/Sales</t>
+  </si>
+  <si>
+    <t>Customer funnel &amp; follow-through (https://plotly.com/python/funnel-charts/)</t>
+  </si>
+  <si>
+    <t>A/B Test results? If time?</t>
+  </si>
+  <si>
+    <t>Cash flow (https://plotly.com/python/sankey-diagram/)</t>
+  </si>
+  <si>
+    <t>Product tiers &amp; price range consolidation</t>
+  </si>
+  <si>
+    <t>Mock Up</t>
+  </si>
+  <si>
+    <t>Revenue Ops for Used Car Sales</t>
+  </si>
+  <si>
+    <t>Total Purchases</t>
+  </si>
+  <si>
+    <t>###</t>
+  </si>
+  <si>
+    <t>Total Opportunities</t>
+  </si>
+  <si>
+    <t>Win Rate</t>
+  </si>
+  <si>
+    <t>%%%</t>
+  </si>
+  <si>
+    <t>Customer Acquisition Cost</t>
+  </si>
+  <si>
+    <t>$$$</t>
+  </si>
+  <si>
+    <t>Sales Cycle Time</t>
+  </si>
+  <si>
+    <t>### days</t>
+  </si>
+  <si>
+    <t>Filter:</t>
+  </si>
+  <si>
+    <t>Car Make</t>
+  </si>
+  <si>
+    <t>Car Model</t>
+  </si>
+  <si>
+    <t>Car Year</t>
+  </si>
+  <si>
+    <t>Sales Metrics</t>
+  </si>
+  <si>
+    <t>Sales by Make/Model/Yr (dynamic)</t>
+  </si>
+  <si>
+    <t>YoY Sales</t>
+  </si>
+  <si>
+    <t>Sales Lifecycle</t>
+  </si>
+  <si>
+    <t>Customer Acquisition Cost over Time</t>
+  </si>
+  <si>
+    <t>shows sales breakdowns by item/mix to show what is successful, what could maybe be cut</t>
+  </si>
+  <si>
+    <t>show how long it is taking to turn customer from prospect to client (either as static number or over time)</t>
+  </si>
+  <si>
+    <t>show ability to turn prospects into clients (static snapshot or over time)</t>
+  </si>
+  <si>
+    <t>show cost of acquiring a single customer per marketing effort</t>
+  </si>
+  <si>
+    <t>how much of this revenue can be relied upon regularly</t>
+  </si>
+  <si>
+    <t>Purpose of inclusion</t>
+  </si>
+  <si>
+    <t>how much can we expect to get from each customer in their relationship with us (this may have to be foregone this time due to data limitations on length of relationships)</t>
+  </si>
+  <si>
+    <t>Recurring Revenue by Revenue Stream</t>
+  </si>
+  <si>
+    <t>Customer Lifetime Value</t>
+  </si>
+  <si>
+    <t>Measure customer retention during a certain timeframe (perhaps after product launch, etc.)</t>
+  </si>
+  <si>
+    <t>Customer Churn over time</t>
+  </si>
+  <si>
+    <t>Customer Funnel</t>
+  </si>
+  <si>
+    <t>Interesting for service like Netflix, etc. where multiple people could be leveraging same customer id, etc.</t>
+  </si>
+  <si>
+    <t>How many actively using the service</t>
+  </si>
+  <si>
+    <t>New customers over time</t>
+  </si>
+  <si>
+    <t>Find where dropoff may be happening with customers in the acquisition pipeline and address that area of the business</t>
+  </si>
+  <si>
+    <t>Possible dashboard "extra" showing a/b test results of a marketing/UI/UX effort</t>
+  </si>
+  <si>
+    <t>(could possibly be service within product? Only share data with those that opt in - more buy-in = more information)</t>
+  </si>
+  <si>
+    <t>Competitor Analysis</t>
+  </si>
+  <si>
+    <t>Product Tier / Price Consolidation Analysis</t>
+  </si>
+  <si>
+    <t>Per-Product Analysis</t>
+  </si>
+  <si>
+    <t>Show where your product is ranking compared to peers, if value is aligning with price</t>
+  </si>
+  <si>
+    <t>See which tiers/product categories of offerings are aligned with peers (! anecdotal finance example @ $1M, 1%)</t>
+  </si>
+  <si>
+    <t>Forego modeling options</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Missing what I think is a very important and interesting piece of information</t>
+  </si>
+  <si>
+    <t>Will work on adding this in future iterations.</t>
+  </si>
+  <si>
+    <t>Show possible future modeling, with 90% confidence interval expectations</t>
+  </si>
+  <si>
+    <t>Show how accurate past models have been, and whether they can be trusted</t>
+  </si>
+  <si>
+    <t>Would really like to do at least one forecasting model with ARIMA, but simply running out of time. In practice, would look at multiple modeling types for time series and see which ones tend to be more accurate - or even give a dropdown of options for a client to choose which one fits their business the best.</t>
+  </si>
+  <si>
+    <t>Reduces information gain on dashboard - not as powerful</t>
+  </si>
+  <si>
+    <t>See where price compression is happening, especially in relation to expenses for those products</t>
+  </si>
+  <si>
+    <t>See what is not yet in the income statement but can be accounted for</t>
+  </si>
+  <si>
+    <t>Self-explanatory</t>
+  </si>
+  <si>
+    <t>Show where revenue is going, if price increases are necessary or expense cuts are necessary</t>
+  </si>
+  <si>
+    <t>Time constraints, Data constraints</t>
+  </si>
+  <si>
+    <t>Data limited to six months, very individualized, so going to be difficult to find recurrences of data to track something like this, especially over an extended period of time to get an accurate reading on CLV.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- </t>
+  </si>
+  <si>
+    <t>Reduce importance of CLV inclusion from 1 to 2</t>
+  </si>
+  <si>
+    <t>Priority (1-high, 3-low)</t>
+  </si>
+  <si>
+    <t>Reduce importance of customer funnel inclusion from 1 to 2</t>
+  </si>
+  <si>
+    <t>Data does not include multiple steps, only "opportunity", "purchase", at this time. Also, running out of itme</t>
+  </si>
+  <si>
+    <t>Revenue streams  (https://plotly.com/python/funnel-charts/)</t>
+  </si>
+  <si>
+    <t>Show different revenue streams/channels as a percentage of overall revenue, over time</t>
+  </si>
+  <si>
+    <t>Reduce importance of revenue stream, cash flow inclusion from 1 to 2</t>
+  </si>
+  <si>
+    <t>Data does not include income statement pieces at this time, running out of timet o include them</t>
+  </si>
+  <si>
+    <t>Forego unit tests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I really hate this decision. Given the fact that I created the data with Mockeroo, I am less concerned about </t>
+  </si>
+  <si>
+    <t>Change to "used car sales" instead of just regular car sales</t>
+  </si>
+  <si>
+    <t>Mockaroo opportunity</t>
+  </si>
+  <si>
+    <t>Mockaroo allows for a year selection in the car fields</t>
+  </si>
+  <si>
+    <t>This will allow for more opportunities to break down the data later</t>
+  </si>
+  <si>
+    <t>Added field</t>
+  </si>
+  <si>
+    <t>I will likely remove this in future iterations.</t>
+  </si>
+  <si>
+    <t>I regret this decision. It hasn't offered much insight and instead made the charts messier</t>
+  </si>
+  <si>
+    <t>Possibility of dirty data getting through</t>
+  </si>
+  <si>
+    <t>Profound regret.</t>
+  </si>
+  <si>
+    <t>One of the first things I will add in future iterations.</t>
+  </si>
+  <si>
+    <t>Run the code locally on development server</t>
+  </si>
+  <si>
+    <t>Would prefer to use Dash Tools/Render to deploy the dashboard, but running out of time to set that up</t>
+  </si>
+  <si>
+    <t>Requires repo download to run code</t>
+  </si>
+  <si>
+    <t>Leave as-is, update readme to include instructions for launching local development server</t>
+  </si>
+  <si>
+    <t>It works, but it fills me with sadness and woe.</t>
+  </si>
+  <si>
+    <t>Will also update as soon as time allows.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -178,8 +499,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -192,8 +520,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF757171"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -201,19 +547,131 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -221,6 +679,76 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -536,207 +1064,1812 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4540EF93-91FE-C644-B2FC-CAF391A7BB93}">
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:T65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="54.33203125" customWidth="1"/>
+    <col min="1" max="1" width="47" customWidth="1"/>
+    <col min="2" max="2" width="102.5" style="5" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="4.1640625" customWidth="1"/>
+    <col min="8" max="8" width="2.83203125" customWidth="1"/>
+    <col min="11" max="11" width="2.83203125" customWidth="1"/>
+    <col min="14" max="14" width="2.5" customWidth="1"/>
+    <col min="17" max="17" width="2.5" customWidth="1"/>
+    <col min="20" max="20" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:20">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="E1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="20" customHeight="1" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="B2" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+    </row>
+    <row r="3" spans="1:20" ht="17">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="B3" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="8"/>
+    </row>
+    <row r="4" spans="1:20" ht="18" thickBot="1">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="B4" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="8"/>
+    </row>
+    <row r="5" spans="1:20" ht="18" thickBot="1">
       <c r="A5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+    </row>
+    <row r="6" spans="1:20" ht="17">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="3" t="s">
+      <c r="B6" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="15"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" s="15"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="M6" s="15"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="S6" s="15"/>
+      <c r="T6" s="8"/>
+    </row>
+    <row r="7" spans="1:20" ht="17">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="3" t="s">
+      <c r="B7" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="5">
+        <v>2</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="8"/>
+    </row>
+    <row r="8" spans="1:20" ht="35" thickBot="1">
+      <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="3" t="s">
+      <c r="B8" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="5">
+        <v>2</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="19"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="J8" s="19"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="M8" s="19"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="S8" s="19"/>
+      <c r="T8" s="8"/>
+    </row>
+    <row r="9" spans="1:20" ht="17">
+      <c r="A9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="5">
+        <v>2</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="8"/>
+    </row>
+    <row r="10" spans="1:20" ht="17">
+      <c r="A10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="5">
+        <v>3</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+    </row>
+    <row r="11" spans="1:20" ht="17">
+      <c r="A11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="5">
+        <v>3</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="11"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="J11" s="11"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="M11" s="13"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+    </row>
+    <row r="12" spans="1:20" ht="17">
+      <c r="A12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="5">
+        <v>3</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="8"/>
+    </row>
+    <row r="13" spans="1:20" ht="17">
+      <c r="A13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="5">
+        <v>2</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="3"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+    </row>
+    <row r="15" spans="1:20" ht="17">
+      <c r="A15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="5">
+        <v>2</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+    </row>
+    <row r="16" spans="1:20" ht="17">
+      <c r="A16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="5">
+        <v>3</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+    </row>
+    <row r="18" spans="1:20" ht="17">
+      <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="1" t="s">
+      <c r="B18" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+    </row>
+    <row r="19" spans="1:20" ht="17">
+      <c r="A19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+    </row>
+    <row r="20" spans="1:20" ht="17">
+      <c r="A20" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" s="5">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="3" t="s">
+      <c r="E22" s="8"/>
+      <c r="F22" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+    </row>
+    <row r="23" spans="1:20" ht="17">
+      <c r="A23" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="B23" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" s="5">
+        <v>1</v>
+      </c>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+    </row>
+    <row r="24" spans="1:20" ht="17">
+      <c r="A24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" s="5">
+        <v>2</v>
+      </c>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+    </row>
+    <row r="27" spans="1:20" ht="17">
+      <c r="A27" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" s="5">
+        <v>2</v>
+      </c>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
+    </row>
+    <row r="28" spans="1:20" ht="17">
+      <c r="A28" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" s="5">
+        <v>2</v>
+      </c>
+      <c r="E28" s="8"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="8"/>
+    </row>
+    <row r="29" spans="1:20" ht="17">
+      <c r="A29" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="5">
+        <v>2</v>
+      </c>
+      <c r="E29" s="8"/>
+      <c r="F29" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
+    </row>
+    <row r="30" spans="1:20" ht="17">
+      <c r="A30" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C30" s="5">
+        <v>1</v>
+      </c>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+    </row>
+    <row r="31" spans="1:20" ht="17">
+      <c r="A31" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31" s="5">
+        <v>1</v>
+      </c>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="8"/>
+      <c r="T31" s="8"/>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="8"/>
+      <c r="T32" s="8"/>
+    </row>
+    <row r="33" spans="5:20">
+      <c r="E33" s="8"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
+    </row>
+    <row r="34" spans="5:20">
+      <c r="E34" s="8"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="8"/>
+      <c r="T34" s="8"/>
+    </row>
+    <row r="35" spans="5:20">
+      <c r="E35" s="8"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="8"/>
+      <c r="S35" s="8"/>
+      <c r="T35" s="8"/>
+    </row>
+    <row r="36" spans="5:20">
+      <c r="E36" s="8"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="8"/>
+      <c r="R36" s="8"/>
+      <c r="S36" s="8"/>
+      <c r="T36" s="8"/>
+    </row>
+    <row r="37" spans="5:20">
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="8"/>
+      <c r="S37" s="8"/>
+      <c r="T37" s="8"/>
+    </row>
+    <row r="38" spans="5:20">
+      <c r="E38" s="8"/>
+      <c r="F38" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8"/>
+      <c r="S38" s="8"/>
+      <c r="T38" s="8"/>
+    </row>
+    <row r="39" spans="5:20">
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="8"/>
+      <c r="R39" s="8"/>
+      <c r="S39" s="8"/>
+      <c r="T39" s="8"/>
+    </row>
+    <row r="40" spans="5:20">
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="8"/>
+      <c r="R40" s="8"/>
+      <c r="S40" s="8"/>
+      <c r="T40" s="8"/>
+    </row>
+    <row r="41" spans="5:20">
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="8"/>
+      <c r="R41" s="8"/>
+      <c r="S41" s="8"/>
+      <c r="T41" s="8"/>
+    </row>
+    <row r="42" spans="5:20">
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="8"/>
+      <c r="P42" s="8"/>
+      <c r="Q42" s="8"/>
+      <c r="R42" s="8"/>
+      <c r="S42" s="8"/>
+      <c r="T42" s="8"/>
+    </row>
+    <row r="43" spans="5:20">
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8"/>
+      <c r="O43" s="8"/>
+      <c r="P43" s="8"/>
+      <c r="Q43" s="8"/>
+      <c r="R43" s="8"/>
+      <c r="S43" s="8"/>
+      <c r="T43" s="8"/>
+    </row>
+    <row r="44" spans="5:20">
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="8"/>
+      <c r="O44" s="8"/>
+      <c r="P44" s="8"/>
+      <c r="Q44" s="8"/>
+      <c r="R44" s="8"/>
+      <c r="S44" s="8"/>
+      <c r="T44" s="8"/>
+    </row>
+    <row r="45" spans="5:20">
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="8"/>
+      <c r="O45" s="8"/>
+      <c r="P45" s="8"/>
+      <c r="Q45" s="8"/>
+      <c r="R45" s="8"/>
+      <c r="S45" s="8"/>
+      <c r="T45" s="8"/>
+    </row>
+    <row r="46" spans="5:20">
+      <c r="E46" s="8"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
+      <c r="O46" s="9"/>
+      <c r="P46" s="9"/>
+      <c r="Q46" s="9"/>
+      <c r="R46" s="9"/>
+      <c r="S46" s="9"/>
+      <c r="T46" s="8"/>
+    </row>
+    <row r="47" spans="5:20">
+      <c r="E47" s="8"/>
+      <c r="F47" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="8"/>
+      <c r="N47" s="8"/>
+      <c r="O47" s="8"/>
+      <c r="P47" s="8"/>
+      <c r="Q47" s="8"/>
+      <c r="R47" s="8"/>
+      <c r="S47" s="8"/>
+      <c r="T47" s="8"/>
+    </row>
+    <row r="48" spans="5:20">
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
+      <c r="N48" s="8"/>
+      <c r="O48" s="8"/>
+      <c r="P48" s="8"/>
+      <c r="Q48" s="8"/>
+      <c r="R48" s="8"/>
+      <c r="S48" s="8"/>
+      <c r="T48" s="8"/>
+    </row>
+    <row r="49" spans="5:20">
+      <c r="E49" s="8"/>
+      <c r="F49" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="N49" s="8"/>
+      <c r="O49" s="8"/>
+      <c r="P49" s="8"/>
+      <c r="Q49" s="8"/>
+      <c r="R49" s="8"/>
+      <c r="S49" s="8"/>
+      <c r="T49" s="8"/>
+    </row>
+    <row r="50" spans="5:20">
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="8"/>
+      <c r="O50" s="8"/>
+      <c r="P50" s="8"/>
+      <c r="Q50" s="8"/>
+      <c r="R50" s="8"/>
+      <c r="S50" s="8"/>
+      <c r="T50" s="8"/>
+    </row>
+    <row r="51" spans="5:20">
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8"/>
+      <c r="N51" s="8"/>
+      <c r="O51" s="8"/>
+      <c r="P51" s="8"/>
+      <c r="Q51" s="8"/>
+      <c r="R51" s="8"/>
+      <c r="S51" s="8"/>
+      <c r="T51" s="8"/>
+    </row>
+    <row r="52" spans="5:20">
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="8"/>
+      <c r="N52" s="8"/>
+      <c r="O52" s="8"/>
+      <c r="P52" s="8"/>
+      <c r="Q52" s="8"/>
+      <c r="R52" s="8"/>
+      <c r="S52" s="8"/>
+      <c r="T52" s="8"/>
+    </row>
+    <row r="53" spans="5:20">
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="8"/>
+      <c r="N53" s="8"/>
+      <c r="O53" s="8"/>
+      <c r="P53" s="8"/>
+      <c r="Q53" s="8"/>
+      <c r="R53" s="8"/>
+      <c r="S53" s="8"/>
+      <c r="T53" s="8"/>
+    </row>
+    <row r="54" spans="5:20">
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="8"/>
+      <c r="N54" s="8"/>
+      <c r="O54" s="8"/>
+      <c r="P54" s="8"/>
+      <c r="Q54" s="8"/>
+      <c r="R54" s="8"/>
+      <c r="S54" s="8"/>
+      <c r="T54" s="8"/>
+    </row>
+    <row r="55" spans="5:20">
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="8"/>
+      <c r="M55" s="8"/>
+      <c r="N55" s="8"/>
+      <c r="O55" s="8"/>
+      <c r="P55" s="8"/>
+      <c r="Q55" s="8"/>
+      <c r="R55" s="8"/>
+      <c r="S55" s="8"/>
+      <c r="T55" s="8"/>
+    </row>
+    <row r="56" spans="5:20">
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="8"/>
+      <c r="L56" s="8"/>
+      <c r="M56" s="8"/>
+      <c r="N56" s="8"/>
+      <c r="O56" s="8"/>
+      <c r="P56" s="8"/>
+      <c r="Q56" s="8"/>
+      <c r="R56" s="8"/>
+      <c r="S56" s="8"/>
+      <c r="T56" s="8"/>
+    </row>
+    <row r="57" spans="5:20">
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="8"/>
+      <c r="M57" s="8"/>
+      <c r="N57" s="8"/>
+      <c r="O57" s="8"/>
+      <c r="P57" s="8"/>
+      <c r="Q57" s="8"/>
+      <c r="R57" s="8"/>
+      <c r="S57" s="8"/>
+      <c r="T57" s="8"/>
+    </row>
+    <row r="58" spans="5:20">
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="8"/>
+      <c r="M58" s="8"/>
+      <c r="N58" s="8"/>
+      <c r="O58" s="8"/>
+      <c r="P58" s="8"/>
+      <c r="Q58" s="8"/>
+      <c r="R58" s="8"/>
+      <c r="S58" s="8"/>
+      <c r="T58" s="8"/>
+    </row>
+    <row r="59" spans="5:20">
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="8"/>
+      <c r="M59" s="8"/>
+      <c r="N59" s="8"/>
+      <c r="O59" s="8"/>
+      <c r="P59" s="8"/>
+      <c r="Q59" s="8"/>
+      <c r="R59" s="8"/>
+      <c r="S59" s="8"/>
+      <c r="T59" s="8"/>
+    </row>
+    <row r="60" spans="5:20">
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="8"/>
+      <c r="L60" s="8"/>
+      <c r="M60" s="8"/>
+      <c r="N60" s="8"/>
+      <c r="O60" s="8"/>
+      <c r="P60" s="8"/>
+      <c r="Q60" s="8"/>
+      <c r="R60" s="8"/>
+      <c r="S60" s="8"/>
+      <c r="T60" s="8"/>
+    </row>
+    <row r="61" spans="5:20">
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="8"/>
+      <c r="L61" s="8"/>
+      <c r="M61" s="8"/>
+      <c r="N61" s="8"/>
+      <c r="O61" s="8"/>
+      <c r="P61" s="8"/>
+      <c r="Q61" s="8"/>
+      <c r="R61" s="8"/>
+      <c r="S61" s="8"/>
+      <c r="T61" s="8"/>
+    </row>
+    <row r="62" spans="5:20">
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="8"/>
+      <c r="L62" s="8"/>
+      <c r="M62" s="8"/>
+      <c r="N62" s="8"/>
+      <c r="O62" s="8"/>
+      <c r="P62" s="8"/>
+      <c r="Q62" s="8"/>
+      <c r="R62" s="8"/>
+      <c r="S62" s="8"/>
+      <c r="T62" s="8"/>
+    </row>
+    <row r="63" spans="5:20">
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="8"/>
+      <c r="K63" s="8"/>
+      <c r="L63" s="8"/>
+      <c r="M63" s="8"/>
+      <c r="N63" s="8"/>
+      <c r="O63" s="8"/>
+      <c r="P63" s="8"/>
+      <c r="Q63" s="8"/>
+      <c r="R63" s="8"/>
+      <c r="S63" s="8"/>
+      <c r="T63" s="8"/>
+    </row>
+    <row r="64" spans="5:20">
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="8"/>
+      <c r="K64" s="8"/>
+      <c r="L64" s="8"/>
+      <c r="M64" s="8"/>
+      <c r="N64" s="8"/>
+      <c r="O64" s="8"/>
+      <c r="P64" s="8"/>
+      <c r="Q64" s="8"/>
+      <c r="R64" s="8"/>
+      <c r="S64" s="8"/>
+      <c r="T64" s="8"/>
+    </row>
+    <row r="65" spans="5:20">
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="8"/>
+      <c r="K65" s="8"/>
+      <c r="L65" s="8"/>
+      <c r="M65" s="8"/>
+      <c r="N65" s="8"/>
+      <c r="O65" s="8"/>
+      <c r="P65" s="8"/>
+      <c r="Q65" s="8"/>
+      <c r="R65" s="8"/>
+      <c r="S65" s="8"/>
+      <c r="T65" s="8"/>
     </row>
   </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="F33:I36"/>
+    <mergeCell ref="F3:S4"/>
+    <mergeCell ref="F6:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="I6:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="L6:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="O6:P7"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="R6:S7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E274BF97-3904-BF42-ABA8-CA221B553A5D}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="24.5" customWidth="1"/>
     <col min="2" max="2" width="21.83203125" customWidth="1"/>
-    <col min="3" max="4" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="26.83203125" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
     <col min="5" max="5" width="12.83203125" customWidth="1"/>
-    <col min="6" max="7" width="21.6640625" customWidth="1"/>
+    <col min="6" max="6" width="28" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" customWidth="1"/>
     <col min="8" max="8" width="43.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="19">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:8" s="34" customFormat="1" ht="19">
+      <c r="A1" s="34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="4" customFormat="1" ht="22" customHeight="1">
+      <c r="A3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" s="5" customFormat="1" ht="22" customHeight="1">
-      <c r="A3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="5" t="s">
+    </row>
+    <row r="4" spans="1:8" s="5" customFormat="1" ht="102">
+      <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="B4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" s="6" customFormat="1" ht="119">
-      <c r="A4" s="6" t="s">
+      <c r="D4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="6">
+        <v>45060</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="5" customFormat="1" ht="85">
+      <c r="A5" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E5" s="6">
+        <v>45060</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="5" customFormat="1" ht="68">
+      <c r="A6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="6">
+        <v>45060</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="5" customFormat="1" ht="153">
+      <c r="A7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="6">
+        <v>45060</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="5" customFormat="1" ht="85">
+      <c r="A8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="7">
+        <v>45060</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="5" customFormat="1" ht="187">
+      <c r="A9" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="7">
-        <v>45059</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="6" customFormat="1" ht="85">
-      <c r="A5" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="7">
-        <v>45059</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="6" customFormat="1" ht="153">
-      <c r="A6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="7">
-        <v>45060</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="6" customFormat="1"/>
-    <row r="8" spans="1:8" s="6" customFormat="1"/>
-    <row r="9" spans="1:8" s="6" customFormat="1"/>
-    <row r="10" spans="1:8" s="6" customFormat="1"/>
-    <row r="11" spans="1:8" s="6" customFormat="1"/>
-    <row r="12" spans="1:8" s="6" customFormat="1"/>
-    <row r="13" spans="1:8" s="6" customFormat="1"/>
-    <row r="14" spans="1:8" s="6" customFormat="1"/>
-    <row r="15" spans="1:8" s="6" customFormat="1"/>
-    <row r="16" spans="1:8" s="6" customFormat="1"/>
-    <row r="17" s="6" customFormat="1"/>
-    <row r="18" s="6" customFormat="1"/>
-    <row r="19" s="6" customFormat="1"/>
-    <row r="20" s="6" customFormat="1"/>
-    <row r="21" s="6" customFormat="1"/>
-    <row r="22" s="6" customFormat="1"/>
-    <row r="23" s="6" customFormat="1"/>
-    <row r="24" s="6" customFormat="1"/>
+      <c r="C9" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9" s="6">
+        <v>45061</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="5" customFormat="1" ht="119">
+      <c r="A10" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" s="6">
+        <v>45061</v>
+      </c>
+      <c r="F10" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="5" customFormat="1" ht="68">
+      <c r="A11" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" s="6">
+        <v>45061</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="5" customFormat="1" ht="68">
+      <c r="A12" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E12" s="6">
+        <v>45061</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="5" customFormat="1" ht="68">
+      <c r="A13" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E13" s="6">
+        <v>45062</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="5" customFormat="1" ht="68">
+      <c r="A14" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E14" s="6">
+        <v>45062</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="5" customFormat="1"/>
+    <row r="16" spans="1:8" s="5" customFormat="1"/>
+    <row r="17" s="5" customFormat="1"/>
+    <row r="18" s="5" customFormat="1"/>
+    <row r="19" s="5" customFormat="1"/>
+    <row r="20" s="5" customFormat="1"/>
+    <row r="21" s="5" customFormat="1"/>
+    <row r="22" s="5" customFormat="1"/>
+    <row r="23" s="5" customFormat="1"/>
+    <row r="24" s="5" customFormat="1"/>
+    <row r="25" s="5" customFormat="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:XFD1"/>

--- a/decision_log.xlsx
+++ b/decision_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Allie/Workspace/revOps_dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{767CE904-3206-C04B-8582-CF3BE0672A3C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51EB3D86-B70B-9447-AE8B-0C980B5C8D95}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5840" yWindow="2120" windowWidth="27640" windowHeight="16940" xr2:uid="{5012CBB8-F046-554B-AC92-AA1359997254}"/>
   </bookViews>

--- a/decision_log.xlsx
+++ b/decision_log.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Allie/Workspace/revOps_dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51EB3D86-B70B-9447-AE8B-0C980B5C8D95}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C6ABB1-ED01-B54F-B671-00308D0813D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5840" yWindow="2120" windowWidth="27640" windowHeight="16940" xr2:uid="{5012CBB8-F046-554B-AC92-AA1359997254}"/>
+    <workbookView xWindow="6760" yWindow="3580" windowWidth="27640" windowHeight="16940" activeTab="2" xr2:uid="{5012CBB8-F046-554B-AC92-AA1359997254}"/>
   </bookViews>
   <sheets>
     <sheet name="Brainstorming" sheetId="1" r:id="rId1"/>
-    <sheet name="Decision Log" sheetId="2" r:id="rId2"/>
+    <sheet name="Things to Fix" sheetId="3" r:id="rId2"/>
+    <sheet name="Decision Log" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="181">
   <si>
     <t>Possible Charting Options</t>
   </si>
@@ -452,6 +453,123 @@
   </si>
   <si>
     <t>Will also update as soon as time allows.</t>
+  </si>
+  <si>
+    <t>Calculate win rate as 6M purchases / TTM opportunities</t>
+  </si>
+  <si>
+    <t>Dataset does not define "closing" of opportunities</t>
+  </si>
+  <si>
+    <t>Since we do not define the close of an opportunity here, we will just use total purchases in the last 6 months, over TTM opportunity counts.</t>
+  </si>
+  <si>
+    <t>Reduces accuracy of win rate, but since I batched the data by year to avoid purchase/opportunity date overlap, it should be somewhat reflective.</t>
+  </si>
+  <si>
+    <t>Reducing datasets to 6m/ttm in `chart_functions.py`, respectively. Recalculating based on those values.</t>
+  </si>
+  <si>
+    <t>Expand dataset</t>
+  </si>
+  <si>
+    <t>Mockaroo Constraints</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expanding dataset by pulling from Mockaroo in batches of ~1000 at a time, up to 5000 per dataset, writing code to collate data subsets into larger dataset. </t>
+  </si>
+  <si>
+    <t>Will allow for YoY data, more repetative data for hopefully further insights</t>
+  </si>
+  <si>
+    <t>Included a code-cleaning .py file. As it is just run the once to generate, clean, and wrangle datasets, it does not get a __main__ function and just exists for single-use runs.</t>
+  </si>
+  <si>
+    <t>Significantly increased the dataset options, helped provide better data insights in granular data, but also created some version of CLT where, since the data is randomly generated, it all sort of merges to similar means/numbers.</t>
+  </si>
+  <si>
+    <t>Add Tabs</t>
+  </si>
+  <si>
+    <t>Dashboard is getting overwhelming</t>
+  </si>
+  <si>
+    <t>Break up the sections by using tabs instead</t>
+  </si>
+  <si>
+    <t>Keeps individual tab dashboards smaller and more concise to their purpose</t>
+  </si>
+  <si>
+    <t>Tab code within `app.layout` and some refactoring of certain areas to accommodate it</t>
+  </si>
+  <si>
+    <t>Looks much cleaner</t>
+  </si>
+  <si>
+    <t>Will still require some layout reformatting</t>
+  </si>
+  <si>
+    <t>√</t>
+  </si>
+  <si>
+    <t>Forego slider on Sankey chart</t>
+  </si>
+  <si>
+    <t>Callbacks not cooperating within other callbacks</t>
+  </si>
+  <si>
+    <t>Was intending to put a slider for QoQ comparison on the Sankey Chart (Financial Analysis), but I could either get the slider to render, or the chart, but not both and not leveraging callbacks correctly.</t>
+  </si>
+  <si>
+    <t>Static chart does not allow for comparisons, unfortunately</t>
+  </si>
+  <si>
+    <t>Commenting out code and refactoring only to include static - will leave code in the codebase in case I want to try again later</t>
+  </si>
+  <si>
+    <t>Less dynamic</t>
+  </si>
+  <si>
+    <t>Just set a random ARIMA pdq</t>
+  </si>
+  <si>
+    <t>Inaccurate predictions, but data is random anyway so not particularly impactful.</t>
+  </si>
+  <si>
+    <t>Not enough time to do an entire "optimal prediction" model research tool, and since accurate predictions on fake data is not the point of the exercise, I will just assign a random PDQ to the model and work with it.</t>
+  </si>
+  <si>
+    <t>Will just do standard ARIMA with (1,0,12)</t>
+  </si>
+  <si>
+    <t>Leave competitor pricing delta list as-is</t>
+  </si>
+  <si>
+    <t>The competitor pricing delta list currently is topped by low-sales items - in theory, would possibly eliminate any low-sales items, but wil leave for now</t>
+  </si>
+  <si>
+    <t>List is less meaningful, as quantity of products would be low to make pricing impact</t>
+  </si>
+  <si>
+    <t>Leave out any additional filtering for now</t>
+  </si>
+  <si>
+    <t>Sort competitor table by opportunity cost</t>
+  </si>
+  <si>
+    <t>Fixing previous line</t>
+  </si>
+  <si>
+    <t>Instead of trying to finagle filtering, will instead calculate and sort by opportunity costs</t>
+  </si>
+  <si>
+    <t>Better shows areas where pricing improvements may have material impact</t>
+  </si>
+  <si>
+    <t>Change code to sort by opportunity cost</t>
+  </si>
+  <si>
+    <t>More material/impactful results</t>
   </si>
 </sst>
 </file>
@@ -666,7 +784,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -689,17 +807,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -707,19 +820,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -738,18 +841,34 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1064,10 +1183,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4540EF93-91FE-C644-B2FC-CAF391A7BB93}">
-  <dimension ref="A1:T65"/>
+  <dimension ref="A1:U65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1075,33 +1194,34 @@
     <col min="1" max="1" width="47" customWidth="1"/>
     <col min="2" max="2" width="102.5" style="5" customWidth="1"/>
     <col min="3" max="3" width="19.83203125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="4.1640625" customWidth="1"/>
-    <col min="8" max="8" width="2.83203125" customWidth="1"/>
-    <col min="11" max="11" width="2.83203125" customWidth="1"/>
-    <col min="14" max="14" width="2.5" customWidth="1"/>
-    <col min="17" max="17" width="2.5" customWidth="1"/>
-    <col min="20" max="20" width="3.6640625" customWidth="1"/>
+    <col min="4" max="4" width="6" style="5" customWidth="1"/>
+    <col min="6" max="6" width="4.1640625" customWidth="1"/>
+    <col min="9" max="9" width="2.83203125" customWidth="1"/>
+    <col min="12" max="12" width="2.83203125" customWidth="1"/>
+    <col min="15" max="15" width="2.5" customWidth="1"/>
+    <col min="18" max="18" width="2.5" customWidth="1"/>
+    <col min="21" max="21" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="20" customHeight="1" thickBot="1">
+    <row r="2" spans="1:21" ht="20" customHeight="1" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="8"/>
+      <c r="D2" s="15"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
@@ -1117,8 +1237,9 @@
       <c r="R2" s="8"/>
       <c r="S2" s="8"/>
       <c r="T2" s="8"/>
-    </row>
-    <row r="3" spans="1:20" ht="17">
+      <c r="U2" s="8"/>
+    </row>
+    <row r="3" spans="1:21" ht="17">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1128,26 +1249,29 @@
       <c r="C3" s="5">
         <v>1</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="25" t="s">
+      <c r="D3" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="8"/>
-    </row>
-    <row r="4" spans="1:20" ht="18" thickBot="1">
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="8"/>
+    </row>
+    <row r="4" spans="1:21" ht="18" thickBot="1">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1157,24 +1281,24 @@
       <c r="C4" s="5">
         <v>1</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="8"/>
-    </row>
-    <row r="5" spans="1:20" ht="18" thickBot="1">
+      <c r="F4" s="8"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="8"/>
+    </row>
+    <row r="5" spans="1:21" ht="18" thickBot="1">
       <c r="A5" s="3" t="s">
         <v>39</v>
       </c>
@@ -1184,7 +1308,6 @@
       <c r="C5" s="5">
         <v>1</v>
       </c>
-      <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -1200,8 +1323,9 @@
       <c r="R5" s="8"/>
       <c r="S5" s="8"/>
       <c r="T5" s="8"/>
-    </row>
-    <row r="6" spans="1:20" ht="17">
+      <c r="U5" s="8"/>
+    </row>
+    <row r="6" spans="1:21" ht="17">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -1211,34 +1335,34 @@
       <c r="C6" s="5">
         <v>1</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="8"/>
+      <c r="G6" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="14" t="s">
+      <c r="H6" s="27"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="J6" s="15"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="14" t="s">
+      <c r="K6" s="27"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="M6" s="15"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="20" t="s">
+      <c r="N6" s="27"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="14" t="s">
+      <c r="Q6" s="31"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="S6" s="15"/>
-      <c r="T6" s="8"/>
-    </row>
-    <row r="7" spans="1:20" ht="17">
+      <c r="T6" s="27"/>
+      <c r="U6" s="8"/>
+    </row>
+    <row r="7" spans="1:21" ht="17">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -1248,24 +1372,24 @@
       <c r="C7" s="5">
         <v>2</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="8"/>
-    </row>
-    <row r="8" spans="1:20" ht="35" thickBot="1">
+      <c r="F7" s="8"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="8"/>
+    </row>
+    <row r="8" spans="1:21" ht="35" thickBot="1">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -1275,34 +1399,34 @@
       <c r="C8" s="5">
         <v>2</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="8"/>
+      <c r="G8" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="19"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="18" t="s">
+      <c r="H8" s="18"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="J8" s="19"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="18" t="s">
+      <c r="K8" s="18"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="M8" s="19"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="18" t="s">
+      <c r="N8" s="18"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="18" t="s">
+      <c r="Q8" s="18"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="S8" s="19"/>
-      <c r="T8" s="8"/>
-    </row>
-    <row r="9" spans="1:20" ht="17">
+      <c r="T8" s="18"/>
+      <c r="U8" s="8"/>
+    </row>
+    <row r="9" spans="1:21" ht="17">
       <c r="A9" s="3" t="s">
         <v>37</v>
       </c>
@@ -1312,8 +1436,7 @@
       <c r="C9" s="5">
         <v>2</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9"/>
+      <c r="F9" s="8"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
@@ -1327,9 +1450,10 @@
       <c r="Q9" s="9"/>
       <c r="R9" s="9"/>
       <c r="S9" s="9"/>
-      <c r="T9" s="8"/>
-    </row>
-    <row r="10" spans="1:20" ht="17">
+      <c r="T9" s="9"/>
+      <c r="U9" s="8"/>
+    </row>
+    <row r="10" spans="1:21" ht="17">
       <c r="A10" s="3" t="s">
         <v>38</v>
       </c>
@@ -1339,11 +1463,10 @@
       <c r="C10" s="5">
         <v>3</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="8"/>
+      <c r="G10" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
@@ -1357,8 +1480,9 @@
       <c r="R10" s="8"/>
       <c r="S10" s="8"/>
       <c r="T10" s="8"/>
-    </row>
-    <row r="11" spans="1:20" ht="17">
+      <c r="U10" s="8"/>
+    </row>
+    <row r="11" spans="1:21" ht="17">
       <c r="A11" s="3" t="s">
         <v>40</v>
       </c>
@@ -1368,30 +1492,30 @@
       <c r="C11" s="5">
         <v>3</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="8"/>
+      <c r="G11" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="10" t="s">
+      <c r="H11" s="11"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="J11" s="11"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="12" t="s">
+      <c r="K11" s="11"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="M11" s="13"/>
-      <c r="N11" s="8"/>
+      <c r="N11" s="13"/>
       <c r="O11" s="8"/>
       <c r="P11" s="8"/>
       <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
       <c r="S11" s="8"/>
       <c r="T11" s="8"/>
-    </row>
-    <row r="12" spans="1:20" ht="17">
+      <c r="U11" s="8"/>
+    </row>
+    <row r="12" spans="1:21" ht="17">
       <c r="A12" s="3" t="s">
         <v>41</v>
       </c>
@@ -1401,8 +1525,7 @@
       <c r="C12" s="5">
         <v>3</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="9"/>
+      <c r="F12" s="8"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
@@ -1416,9 +1539,10 @@
       <c r="Q12" s="9"/>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
-      <c r="T12" s="8"/>
-    </row>
-    <row r="13" spans="1:20" ht="17">
+      <c r="T12" s="9"/>
+      <c r="U12" s="8"/>
+    </row>
+    <row r="13" spans="1:21" ht="17">
       <c r="A13" s="3" t="s">
         <v>42</v>
       </c>
@@ -1428,7 +1552,6 @@
       <c r="C13" s="5">
         <v>2</v>
       </c>
-      <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
@@ -1444,14 +1567,14 @@
       <c r="R13" s="8"/>
       <c r="S13" s="8"/>
       <c r="T13" s="8"/>
-    </row>
-    <row r="14" spans="1:20">
+      <c r="U13" s="8"/>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" s="3"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="24" t="s">
+      <c r="F14" s="8"/>
+      <c r="G14" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
@@ -1465,8 +1588,9 @@
       <c r="R14" s="8"/>
       <c r="S14" s="8"/>
       <c r="T14" s="8"/>
-    </row>
-    <row r="15" spans="1:20" ht="17">
+      <c r="U14" s="8"/>
+    </row>
+    <row r="15" spans="1:21" ht="17">
       <c r="A15" s="3" t="s">
         <v>54</v>
       </c>
@@ -1476,7 +1600,6 @@
       <c r="C15" s="5">
         <v>2</v>
       </c>
-      <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
@@ -1492,8 +1615,9 @@
       <c r="R15" s="8"/>
       <c r="S15" s="8"/>
       <c r="T15" s="8"/>
-    </row>
-    <row r="16" spans="1:20" ht="17">
+      <c r="U15" s="8"/>
+    </row>
+    <row r="16" spans="1:21" ht="17">
       <c r="A16" s="3" t="s">
         <v>55</v>
       </c>
@@ -1503,29 +1627,28 @@
       <c r="C16" s="5">
         <v>3</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="8"/>
+      <c r="G16" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
-      <c r="M16" s="8" t="s">
+      <c r="M16" s="8"/>
+      <c r="N16" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="N16" s="8"/>
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
       <c r="Q16" s="8"/>
       <c r="R16" s="8"/>
       <c r="S16" s="8"/>
       <c r="T16" s="8"/>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="E17" s="8"/>
+      <c r="U16" s="8"/>
+    </row>
+    <row r="17" spans="1:21">
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
@@ -1541,15 +1664,15 @@
       <c r="R17" s="8"/>
       <c r="S17" s="8"/>
       <c r="T17" s="8"/>
-    </row>
-    <row r="18" spans="1:20" ht="17">
+      <c r="U17" s="8"/>
+    </row>
+    <row r="18" spans="1:21" ht="17">
       <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
@@ -1565,8 +1688,9 @@
       <c r="R18" s="8"/>
       <c r="S18" s="8"/>
       <c r="T18" s="8"/>
-    </row>
-    <row r="19" spans="1:20" ht="17">
+      <c r="U18" s="8"/>
+    </row>
+    <row r="19" spans="1:21" ht="17">
       <c r="A19" s="3" t="s">
         <v>36</v>
       </c>
@@ -1576,7 +1700,9 @@
       <c r="C19" s="5">
         <v>1</v>
       </c>
-      <c r="E19" s="8"/>
+      <c r="D19" s="5" t="s">
+        <v>160</v>
+      </c>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
@@ -1592,8 +1718,9 @@
       <c r="R19" s="8"/>
       <c r="S19" s="8"/>
       <c r="T19" s="8"/>
-    </row>
-    <row r="20" spans="1:20" ht="17">
+      <c r="U19" s="8"/>
+    </row>
+    <row r="20" spans="1:21" ht="17">
       <c r="A20" s="3" t="s">
         <v>57</v>
       </c>
@@ -1603,7 +1730,9 @@
       <c r="C20" s="5">
         <v>1</v>
       </c>
-      <c r="E20" s="8"/>
+      <c r="D20" s="5" t="s">
+        <v>160</v>
+      </c>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
@@ -1619,9 +1748,9 @@
       <c r="R20" s="8"/>
       <c r="S20" s="8"/>
       <c r="T20" s="8"/>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="E21" s="8"/>
+      <c r="U20" s="8"/>
+    </row>
+    <row r="21" spans="1:21">
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
@@ -1637,16 +1766,16 @@
       <c r="R21" s="8"/>
       <c r="S21" s="8"/>
       <c r="T21" s="8"/>
-    </row>
-    <row r="22" spans="1:20">
+      <c r="U21" s="8"/>
+    </row>
+    <row r="22" spans="1:21">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="8"/>
+      <c r="G22" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
@@ -1660,8 +1789,9 @@
       <c r="R22" s="8"/>
       <c r="S22" s="8"/>
       <c r="T22" s="8"/>
-    </row>
-    <row r="23" spans="1:20" ht="17">
+      <c r="U22" s="8"/>
+    </row>
+    <row r="23" spans="1:21" ht="17">
       <c r="A23" s="3" t="s">
         <v>9</v>
       </c>
@@ -1671,7 +1801,6 @@
       <c r="C23" s="5">
         <v>1</v>
       </c>
-      <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
@@ -1687,8 +1816,9 @@
       <c r="R23" s="8"/>
       <c r="S23" s="8"/>
       <c r="T23" s="8"/>
-    </row>
-    <row r="24" spans="1:20" ht="17">
+      <c r="U23" s="8"/>
+    </row>
+    <row r="24" spans="1:21" ht="17">
       <c r="A24" s="3" t="s">
         <v>35</v>
       </c>
@@ -1698,7 +1828,6 @@
       <c r="C24" s="5">
         <v>2</v>
       </c>
-      <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
@@ -1714,9 +1843,9 @@
       <c r="R24" s="8"/>
       <c r="S24" s="8"/>
       <c r="T24" s="8"/>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="E25" s="8"/>
+      <c r="U24" s="8"/>
+    </row>
+    <row r="25" spans="1:21">
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
@@ -1732,12 +1861,12 @@
       <c r="R25" s="8"/>
       <c r="S25" s="8"/>
       <c r="T25" s="8"/>
-    </row>
-    <row r="26" spans="1:20">
+      <c r="U25" s="8"/>
+    </row>
+    <row r="26" spans="1:21">
       <c r="A26" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
@@ -1753,8 +1882,9 @@
       <c r="R26" s="8"/>
       <c r="S26" s="8"/>
       <c r="T26" s="8"/>
-    </row>
-    <row r="27" spans="1:20" ht="17">
+      <c r="U26" s="8"/>
+    </row>
+    <row r="27" spans="1:21" ht="17">
       <c r="A27" s="3" t="s">
         <v>44</v>
       </c>
@@ -1764,7 +1894,6 @@
       <c r="C27" s="5">
         <v>2</v>
       </c>
-      <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
@@ -1780,8 +1909,9 @@
       <c r="R27" s="8"/>
       <c r="S27" s="8"/>
       <c r="T27" s="8"/>
-    </row>
-    <row r="28" spans="1:20" ht="17">
+      <c r="U27" s="8"/>
+    </row>
+    <row r="28" spans="1:21" ht="17">
       <c r="A28" s="3" t="s">
         <v>45</v>
       </c>
@@ -1791,8 +1921,7 @@
       <c r="C28" s="5">
         <v>2</v>
       </c>
-      <c r="E28" s="8"/>
-      <c r="F28" s="9"/>
+      <c r="F28" s="8"/>
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
@@ -1806,9 +1935,10 @@
       <c r="Q28" s="9"/>
       <c r="R28" s="9"/>
       <c r="S28" s="9"/>
-      <c r="T28" s="8"/>
-    </row>
-    <row r="29" spans="1:20" ht="17">
+      <c r="T28" s="9"/>
+      <c r="U28" s="8"/>
+    </row>
+    <row r="29" spans="1:21" ht="17">
       <c r="A29" s="3" t="s">
         <v>53</v>
       </c>
@@ -1818,11 +1948,10 @@
       <c r="C29" s="5">
         <v>2</v>
       </c>
-      <c r="E29" s="8"/>
-      <c r="F29" s="24" t="s">
+      <c r="F29" s="8"/>
+      <c r="G29" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="G29" s="8"/>
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
@@ -1836,8 +1965,9 @@
       <c r="R29" s="8"/>
       <c r="S29" s="8"/>
       <c r="T29" s="8"/>
-    </row>
-    <row r="30" spans="1:20" ht="17">
+      <c r="U29" s="8"/>
+    </row>
+    <row r="30" spans="1:21" ht="17">
       <c r="A30" s="3" t="s">
         <v>120</v>
       </c>
@@ -1847,7 +1977,6 @@
       <c r="C30" s="5">
         <v>1</v>
       </c>
-      <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
@@ -1863,8 +1992,9 @@
       <c r="R30" s="8"/>
       <c r="S30" s="8"/>
       <c r="T30" s="8"/>
-    </row>
-    <row r="31" spans="1:20" ht="17">
+      <c r="U30" s="8"/>
+    </row>
+    <row r="31" spans="1:21" ht="17">
       <c r="A31" s="3" t="s">
         <v>56</v>
       </c>
@@ -1874,29 +2004,28 @@
       <c r="C31" s="5">
         <v>1</v>
       </c>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8" t="s">
+      <c r="F31" s="8"/>
+      <c r="G31" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="G31" s="8"/>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
-      <c r="M31" s="8" t="s">
+      <c r="M31" s="8"/>
+      <c r="N31" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="N31" s="8"/>
       <c r="O31" s="8"/>
       <c r="P31" s="8"/>
       <c r="Q31" s="8"/>
       <c r="R31" s="8"/>
       <c r="S31" s="8"/>
       <c r="T31" s="8"/>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="E32" s="8"/>
+      <c r="U31" s="8"/>
+    </row>
+    <row r="32" spans="1:21">
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
@@ -1912,14 +2041,14 @@
       <c r="R32" s="8"/>
       <c r="S32" s="8"/>
       <c r="T32" s="8"/>
-    </row>
-    <row r="33" spans="5:20">
-      <c r="E33" s="8"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="8"/>
+      <c r="U32" s="8"/>
+    </row>
+    <row r="33" spans="6:21">
+      <c r="F33" s="8"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
       <c r="K33" s="8"/>
       <c r="L33" s="8"/>
       <c r="M33" s="8"/>
@@ -1930,14 +2059,14 @@
       <c r="R33" s="8"/>
       <c r="S33" s="8"/>
       <c r="T33" s="8"/>
-    </row>
-    <row r="34" spans="5:20">
-      <c r="E34" s="8"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="8"/>
+      <c r="U33" s="8"/>
+    </row>
+    <row r="34" spans="6:21">
+      <c r="F34" s="8"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
       <c r="M34" s="8"/>
@@ -1948,14 +2077,14 @@
       <c r="R34" s="8"/>
       <c r="S34" s="8"/>
       <c r="T34" s="8"/>
-    </row>
-    <row r="35" spans="5:20">
-      <c r="E35" s="8"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="8"/>
+      <c r="U34" s="8"/>
+    </row>
+    <row r="35" spans="6:21">
+      <c r="F35" s="8"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
       <c r="K35" s="8"/>
       <c r="L35" s="8"/>
       <c r="M35" s="8"/>
@@ -1966,14 +2095,14 @@
       <c r="R35" s="8"/>
       <c r="S35" s="8"/>
       <c r="T35" s="8"/>
-    </row>
-    <row r="36" spans="5:20">
-      <c r="E36" s="8"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="8"/>
+      <c r="U35" s="8"/>
+    </row>
+    <row r="36" spans="6:21">
+      <c r="F36" s="8"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
       <c r="M36" s="8"/>
@@ -1984,9 +2113,9 @@
       <c r="R36" s="8"/>
       <c r="S36" s="8"/>
       <c r="T36" s="8"/>
-    </row>
-    <row r="37" spans="5:20">
-      <c r="E37" s="8"/>
+      <c r="U36" s="8"/>
+    </row>
+    <row r="37" spans="6:21">
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
@@ -2002,31 +2131,31 @@
       <c r="R37" s="8"/>
       <c r="S37" s="8"/>
       <c r="T37" s="8"/>
-    </row>
-    <row r="38" spans="5:20">
-      <c r="E38" s="8"/>
-      <c r="F38" s="8" t="s">
+      <c r="U37" s="8"/>
+    </row>
+    <row r="38" spans="6:21">
+      <c r="F38" s="8"/>
+      <c r="G38" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="G38" s="8"/>
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
-      <c r="M38" s="8" t="s">
+      <c r="M38" s="8"/>
+      <c r="N38" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="N38" s="8"/>
       <c r="O38" s="8"/>
       <c r="P38" s="8"/>
       <c r="Q38" s="8"/>
       <c r="R38" s="8"/>
       <c r="S38" s="8"/>
       <c r="T38" s="8"/>
-    </row>
-    <row r="39" spans="5:20">
-      <c r="E39" s="8"/>
+      <c r="U38" s="8"/>
+    </row>
+    <row r="39" spans="6:21">
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
@@ -2042,9 +2171,9 @@
       <c r="R39" s="8"/>
       <c r="S39" s="8"/>
       <c r="T39" s="8"/>
-    </row>
-    <row r="40" spans="5:20">
-      <c r="E40" s="8"/>
+      <c r="U39" s="8"/>
+    </row>
+    <row r="40" spans="6:21">
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
@@ -2060,9 +2189,9 @@
       <c r="R40" s="8"/>
       <c r="S40" s="8"/>
       <c r="T40" s="8"/>
-    </row>
-    <row r="41" spans="5:20">
-      <c r="E41" s="8"/>
+      <c r="U40" s="8"/>
+    </row>
+    <row r="41" spans="6:21">
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
@@ -2078,9 +2207,9 @@
       <c r="R41" s="8"/>
       <c r="S41" s="8"/>
       <c r="T41" s="8"/>
-    </row>
-    <row r="42" spans="5:20">
-      <c r="E42" s="8"/>
+      <c r="U41" s="8"/>
+    </row>
+    <row r="42" spans="6:21">
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
@@ -2096,9 +2225,9 @@
       <c r="R42" s="8"/>
       <c r="S42" s="8"/>
       <c r="T42" s="8"/>
-    </row>
-    <row r="43" spans="5:20">
-      <c r="E43" s="8"/>
+      <c r="U42" s="8"/>
+    </row>
+    <row r="43" spans="6:21">
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
@@ -2114,9 +2243,9 @@
       <c r="R43" s="8"/>
       <c r="S43" s="8"/>
       <c r="T43" s="8"/>
-    </row>
-    <row r="44" spans="5:20">
-      <c r="E44" s="8"/>
+      <c r="U43" s="8"/>
+    </row>
+    <row r="44" spans="6:21">
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
@@ -2132,9 +2261,9 @@
       <c r="R44" s="8"/>
       <c r="S44" s="8"/>
       <c r="T44" s="8"/>
-    </row>
-    <row r="45" spans="5:20">
-      <c r="E45" s="8"/>
+      <c r="U44" s="8"/>
+    </row>
+    <row r="45" spans="6:21">
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
@@ -2150,10 +2279,10 @@
       <c r="R45" s="8"/>
       <c r="S45" s="8"/>
       <c r="T45" s="8"/>
-    </row>
-    <row r="46" spans="5:20">
-      <c r="E46" s="8"/>
-      <c r="F46" s="9"/>
+      <c r="U45" s="8"/>
+    </row>
+    <row r="46" spans="6:21">
+      <c r="F46" s="8"/>
       <c r="G46" s="9"/>
       <c r="H46" s="9"/>
       <c r="I46" s="9"/>
@@ -2167,14 +2296,14 @@
       <c r="Q46" s="9"/>
       <c r="R46" s="9"/>
       <c r="S46" s="9"/>
-      <c r="T46" s="8"/>
-    </row>
-    <row r="47" spans="5:20">
-      <c r="E47" s="8"/>
-      <c r="F47" s="24" t="s">
+      <c r="T46" s="9"/>
+      <c r="U46" s="8"/>
+    </row>
+    <row r="47" spans="6:21">
+      <c r="F47" s="8"/>
+      <c r="G47" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="G47" s="8"/>
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
@@ -2188,9 +2317,9 @@
       <c r="R47" s="8"/>
       <c r="S47" s="8"/>
       <c r="T47" s="8"/>
-    </row>
-    <row r="48" spans="5:20">
-      <c r="E48" s="8"/>
+      <c r="U47" s="8"/>
+    </row>
+    <row r="48" spans="6:21">
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
@@ -2206,31 +2335,31 @@
       <c r="R48" s="8"/>
       <c r="S48" s="8"/>
       <c r="T48" s="8"/>
-    </row>
-    <row r="49" spans="5:20">
-      <c r="E49" s="8"/>
-      <c r="F49" s="8" t="s">
+      <c r="U48" s="8"/>
+    </row>
+    <row r="49" spans="6:21">
+      <c r="F49" s="8"/>
+      <c r="G49" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="G49" s="8"/>
       <c r="H49" s="8"/>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="8"/>
-      <c r="M49" s="8" t="s">
+      <c r="M49" s="8"/>
+      <c r="N49" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="N49" s="8"/>
       <c r="O49" s="8"/>
       <c r="P49" s="8"/>
       <c r="Q49" s="8"/>
       <c r="R49" s="8"/>
       <c r="S49" s="8"/>
       <c r="T49" s="8"/>
-    </row>
-    <row r="50" spans="5:20">
-      <c r="E50" s="8"/>
+      <c r="U49" s="8"/>
+    </row>
+    <row r="50" spans="6:21">
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c r="H50" s="8"/>
@@ -2246,9 +2375,9 @@
       <c r="R50" s="8"/>
       <c r="S50" s="8"/>
       <c r="T50" s="8"/>
-    </row>
-    <row r="51" spans="5:20">
-      <c r="E51" s="8"/>
+      <c r="U50" s="8"/>
+    </row>
+    <row r="51" spans="6:21">
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c r="H51" s="8"/>
@@ -2264,9 +2393,9 @@
       <c r="R51" s="8"/>
       <c r="S51" s="8"/>
       <c r="T51" s="8"/>
-    </row>
-    <row r="52" spans="5:20">
-      <c r="E52" s="8"/>
+      <c r="U51" s="8"/>
+    </row>
+    <row r="52" spans="6:21">
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c r="H52" s="8"/>
@@ -2282,9 +2411,9 @@
       <c r="R52" s="8"/>
       <c r="S52" s="8"/>
       <c r="T52" s="8"/>
-    </row>
-    <row r="53" spans="5:20">
-      <c r="E53" s="8"/>
+      <c r="U52" s="8"/>
+    </row>
+    <row r="53" spans="6:21">
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c r="H53" s="8"/>
@@ -2300,9 +2429,9 @@
       <c r="R53" s="8"/>
       <c r="S53" s="8"/>
       <c r="T53" s="8"/>
-    </row>
-    <row r="54" spans="5:20">
-      <c r="E54" s="8"/>
+      <c r="U53" s="8"/>
+    </row>
+    <row r="54" spans="6:21">
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c r="H54" s="8"/>
@@ -2318,9 +2447,9 @@
       <c r="R54" s="8"/>
       <c r="S54" s="8"/>
       <c r="T54" s="8"/>
-    </row>
-    <row r="55" spans="5:20">
-      <c r="E55" s="8"/>
+      <c r="U54" s="8"/>
+    </row>
+    <row r="55" spans="6:21">
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c r="H55" s="8"/>
@@ -2336,9 +2465,9 @@
       <c r="R55" s="8"/>
       <c r="S55" s="8"/>
       <c r="T55" s="8"/>
-    </row>
-    <row r="56" spans="5:20">
-      <c r="E56" s="8"/>
+      <c r="U55" s="8"/>
+    </row>
+    <row r="56" spans="6:21">
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c r="H56" s="8"/>
@@ -2354,9 +2483,9 @@
       <c r="R56" s="8"/>
       <c r="S56" s="8"/>
       <c r="T56" s="8"/>
-    </row>
-    <row r="57" spans="5:20">
-      <c r="E57" s="8"/>
+      <c r="U56" s="8"/>
+    </row>
+    <row r="57" spans="6:21">
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c r="H57" s="8"/>
@@ -2372,9 +2501,9 @@
       <c r="R57" s="8"/>
       <c r="S57" s="8"/>
       <c r="T57" s="8"/>
-    </row>
-    <row r="58" spans="5:20">
-      <c r="E58" s="8"/>
+      <c r="U57" s="8"/>
+    </row>
+    <row r="58" spans="6:21">
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c r="H58" s="8"/>
@@ -2390,9 +2519,9 @@
       <c r="R58" s="8"/>
       <c r="S58" s="8"/>
       <c r="T58" s="8"/>
-    </row>
-    <row r="59" spans="5:20">
-      <c r="E59" s="8"/>
+      <c r="U58" s="8"/>
+    </row>
+    <row r="59" spans="6:21">
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c r="H59" s="8"/>
@@ -2408,9 +2537,9 @@
       <c r="R59" s="8"/>
       <c r="S59" s="8"/>
       <c r="T59" s="8"/>
-    </row>
-    <row r="60" spans="5:20">
-      <c r="E60" s="8"/>
+      <c r="U59" s="8"/>
+    </row>
+    <row r="60" spans="6:21">
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c r="H60" s="8"/>
@@ -2426,9 +2555,9 @@
       <c r="R60" s="8"/>
       <c r="S60" s="8"/>
       <c r="T60" s="8"/>
-    </row>
-    <row r="61" spans="5:20">
-      <c r="E61" s="8"/>
+      <c r="U60" s="8"/>
+    </row>
+    <row r="61" spans="6:21">
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c r="H61" s="8"/>
@@ -2444,9 +2573,9 @@
       <c r="R61" s="8"/>
       <c r="S61" s="8"/>
       <c r="T61" s="8"/>
-    </row>
-    <row r="62" spans="5:20">
-      <c r="E62" s="8"/>
+      <c r="U61" s="8"/>
+    </row>
+    <row r="62" spans="6:21">
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c r="H62" s="8"/>
@@ -2462,9 +2591,9 @@
       <c r="R62" s="8"/>
       <c r="S62" s="8"/>
       <c r="T62" s="8"/>
-    </row>
-    <row r="63" spans="5:20">
-      <c r="E63" s="8"/>
+      <c r="U62" s="8"/>
+    </row>
+    <row r="63" spans="6:21">
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c r="H63" s="8"/>
@@ -2480,9 +2609,9 @@
       <c r="R63" s="8"/>
       <c r="S63" s="8"/>
       <c r="T63" s="8"/>
-    </row>
-    <row r="64" spans="5:20">
-      <c r="E64" s="8"/>
+      <c r="U63" s="8"/>
+    </row>
+    <row r="64" spans="6:21">
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c r="H64" s="8"/>
@@ -2498,9 +2627,9 @@
       <c r="R64" s="8"/>
       <c r="S64" s="8"/>
       <c r="T64" s="8"/>
-    </row>
-    <row r="65" spans="5:20">
-      <c r="E65" s="8"/>
+      <c r="U64" s="8"/>
+    </row>
+    <row r="65" spans="6:21">
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c r="H65" s="8"/>
@@ -2516,33 +2645,61 @@
       <c r="R65" s="8"/>
       <c r="S65" s="8"/>
       <c r="T65" s="8"/>
+      <c r="U65" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="F33:I36"/>
-    <mergeCell ref="F3:S4"/>
-    <mergeCell ref="F6:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="I6:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="L6:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="O6:P7"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="R6:S7"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="G33:J36"/>
+    <mergeCell ref="G3:T4"/>
+    <mergeCell ref="G6:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="J6:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="M6:N7"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="P6:Q7"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="S6:T7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E274BF97-3904-BF42-ABA8-CA221B553A5D}">
-  <dimension ref="A1:H25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8408108-C917-1848-B277-1E0F02485ED6}">
+  <dimension ref="A2:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="54.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" s="35"/>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="35"/>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="35"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E274BF97-3904-BF42-ABA8-CA221B553A5D}">
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2745,7 +2902,7 @@
       <c r="E10" s="6">
         <v>45061</v>
       </c>
-      <c r="F10" s="33" t="s">
+      <c r="F10" s="16" t="s">
         <v>115</v>
       </c>
       <c r="G10" s="5" t="s">
@@ -2771,7 +2928,7 @@
       <c r="E11" s="6">
         <v>45061</v>
       </c>
-      <c r="F11" s="33" t="s">
+      <c r="F11" s="16" t="s">
         <v>115</v>
       </c>
       <c r="G11" s="5" t="s">
@@ -2797,7 +2954,7 @@
       <c r="E12" s="6">
         <v>45061</v>
       </c>
-      <c r="F12" s="33" t="s">
+      <c r="F12" s="16" t="s">
         <v>115</v>
       </c>
       <c r="G12" s="5" t="s">
@@ -2859,17 +3016,167 @@
         <v>141</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="5" customFormat="1"/>
-    <row r="16" spans="1:8" s="5" customFormat="1"/>
-    <row r="17" s="5" customFormat="1"/>
-    <row r="18" s="5" customFormat="1"/>
-    <row r="19" s="5" customFormat="1"/>
-    <row r="20" s="5" customFormat="1"/>
-    <row r="21" s="5" customFormat="1"/>
-    <row r="22" s="5" customFormat="1"/>
-    <row r="23" s="5" customFormat="1"/>
-    <row r="24" s="5" customFormat="1"/>
-    <row r="25" s="5" customFormat="1"/>
+    <row r="15" spans="1:8" s="5" customFormat="1" ht="68">
+      <c r="A15" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E15" s="6">
+        <v>45062</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="5" customFormat="1" ht="170">
+      <c r="A16" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E16" s="6">
+        <v>45063</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="5" customFormat="1" ht="102">
+      <c r="A17" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E17" s="7">
+        <v>45063</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="5" customFormat="1" ht="119">
+      <c r="A18" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E18" s="6">
+        <v>45063</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="5" customFormat="1" ht="136">
+      <c r="A19" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E19" s="6">
+        <v>45064</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="5" customFormat="1" ht="102">
+      <c r="A20" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E20" s="6">
+        <v>45064</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="5" customFormat="1" ht="68">
+      <c r="A21" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E21" s="6">
+        <v>45064</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="5" customFormat="1"/>
+    <row r="23" spans="1:7" s="5" customFormat="1"/>
+    <row r="24" spans="1:7" s="5" customFormat="1"/>
+    <row r="25" spans="1:7" s="5" customFormat="1"/>
+    <row r="26" spans="1:7" s="5" customFormat="1"/>
+    <row r="27" spans="1:7" s="5" customFormat="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:XFD1"/>

--- a/decision_log.xlsx
+++ b/decision_log.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Allie/Workspace/revOps_dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C6ABB1-ED01-B54F-B671-00308D0813D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58AFC96-4247-2F46-820F-96A3B59335A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6760" yWindow="3580" windowWidth="27640" windowHeight="16940" activeTab="2" xr2:uid="{5012CBB8-F046-554B-AC92-AA1359997254}"/>
+    <workbookView xWindow="6760" yWindow="3580" windowWidth="27640" windowHeight="16940" xr2:uid="{5012CBB8-F046-554B-AC92-AA1359997254}"/>
   </bookViews>
   <sheets>
     <sheet name="Brainstorming" sheetId="1" r:id="rId1"/>
-    <sheet name="Things to Fix" sheetId="3" r:id="rId2"/>
-    <sheet name="Decision Log" sheetId="2" r:id="rId3"/>
+    <sheet name="Decision Log" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="192">
   <si>
     <t>Possible Charting Options</t>
   </si>
@@ -570,6 +569,39 @@
   </si>
   <si>
     <t>More material/impactful results</t>
+  </si>
+  <si>
+    <t>Forego win rate strip chart</t>
+  </si>
+  <si>
+    <t>Win rate strip chart getting too messy to break down by make/model. Groupbys becoming extremely time consuming. Will forego for now</t>
+  </si>
+  <si>
+    <t>Missing chart</t>
+  </si>
+  <si>
+    <t>Extreme predictions</t>
+  </si>
+  <si>
+    <t>Host on Render</t>
+  </si>
+  <si>
+    <t>Heroku no longer free</t>
+  </si>
+  <si>
+    <t>Heroku is no longer free, there is a free service called Render for Dash apps</t>
+  </si>
+  <si>
+    <t>Service will be slower</t>
+  </si>
+  <si>
+    <t>Deployed on Render successfully</t>
+  </si>
+  <si>
+    <t>Slow chart generatin</t>
+  </si>
+  <si>
+    <t>Not as precise as I would like, but it works.</t>
   </si>
 </sst>
 </file>
@@ -784,7 +816,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -868,7 +900,6 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1185,8 +1216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4540EF93-91FE-C644-B2FC-CAF391A7BB93}">
   <dimension ref="A1:U65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2667,39 +2698,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8408108-C917-1848-B277-1E0F02485ED6}">
-  <dimension ref="A2:A4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="54.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:1">
-      <c r="A2" s="35"/>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="35"/>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="35"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E274BF97-3904-BF42-ABA8-CA221B553A5D}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3084,6 +3088,9 @@
       <c r="F17" s="5" t="s">
         <v>146</v>
       </c>
+      <c r="G17" s="5" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="18" spans="1:7" s="5" customFormat="1" ht="119">
       <c r="A18" s="5" t="s">
@@ -3127,6 +3134,9 @@
       <c r="F19" s="5" t="s">
         <v>170</v>
       </c>
+      <c r="G19" s="5" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="20" spans="1:7" s="5" customFormat="1" ht="102">
       <c r="A20" s="5" t="s">
@@ -3171,8 +3181,46 @@
         <v>180</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="5" customFormat="1"/>
-    <row r="23" spans="1:7" s="5" customFormat="1"/>
+    <row r="22" spans="1:7" s="5" customFormat="1" ht="102">
+      <c r="A22" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E22" s="7">
+        <v>45064</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="5" customFormat="1" ht="51">
+      <c r="A23" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="E23" s="6">
+        <v>45065</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
     <row r="24" spans="1:7" s="5" customFormat="1"/>
     <row r="25" spans="1:7" s="5" customFormat="1"/>
     <row r="26" spans="1:7" s="5" customFormat="1"/>
